--- a/data/income_statement/2digits/size/26_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/26_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>26-Manufacture of computer, electronic and optical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>26-Manufacture of computer, electronic and optical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,851 +841,961 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>523145.08062</v>
+        <v>536795.25252</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>654688.8703299999</v>
+        <v>640338.21699</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>833080.94669</v>
+        <v>833456.74995</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>981124.9289300001</v>
+        <v>983144.27804</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1154847.12738</v>
+        <v>1209042.02786</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1561488.40716</v>
+        <v>1587069.41732</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1445091.48348</v>
+        <v>1409957.7138</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1497759.05353</v>
+        <v>1507443.37216</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2101939.20176</v>
+        <v>2225508.00841</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3312730.95241</v>
+        <v>3498888.239060001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3966060.10756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4392375.92159</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6696801.957</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>396229.72027</v>
+        <v>398741.29286</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>563395.3496599999</v>
+        <v>539222.8645</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>676019.75356</v>
+        <v>680258.00856</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>843254.9533600002</v>
+        <v>836471.7527000001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>901327.16961</v>
+        <v>946733.4103499999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1233416.46648</v>
+        <v>1263065.9729</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1023089.60188</v>
+        <v>1000547.67885</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1247013.44282</v>
+        <v>1224427.383</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1755733.08578</v>
+        <v>1822677.95614</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2625815.301929999</v>
+        <v>2826209.68417</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3175696.3372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3680927.78205</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5560140.504</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>116874.97767</v>
+        <v>130507.72262</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>81823.90063999999</v>
+        <v>90940.89584</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>145372.85476</v>
+        <v>141793.81231</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>125704.51631</v>
+        <v>134841.3371</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>237328.48465</v>
+        <v>243468.13822</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>313396.2573</v>
+        <v>305923.0695</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>399731.05927</v>
+        <v>388883.0249399999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>216513.82821</v>
+        <v>240845.2209</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>306422.83998</v>
+        <v>355546.50657</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>594897.6565200001</v>
+        <v>588235.37323</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>702254.3944199999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>630591.5406200001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1047902.116</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>10040.38268</v>
+        <v>7546.237040000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9469.62003</v>
+        <v>10174.45665</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>11688.33837</v>
+        <v>11404.92908</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>12165.45926</v>
+        <v>11831.18824</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>16191.47312</v>
+        <v>18840.47929</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>14675.68338</v>
+        <v>18080.37492</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>22270.82233</v>
+        <v>20527.01001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>34231.7825</v>
+        <v>42170.76826</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>39783.276</v>
+        <v>47283.5457</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>92017.99395999999</v>
+        <v>84443.18166</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>88109.37594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>80856.59891999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>88759.337</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>15274.12748</v>
+        <v>13321.09809</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>31812.91864</v>
+        <v>32102.01509</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>16560.06815</v>
+        <v>15451.62688</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>18384.82785</v>
+        <v>17234.18495</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>21705.28704</v>
+        <v>23932.27931</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>64719.06920000001</v>
+        <v>62462.61199000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>34886.44893</v>
+        <v>33875.90669999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>36430.28137999999</v>
+        <v>34557.6066</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>47754.87094</v>
+        <v>63669.92847</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>84216.0497</v>
+        <v>119045.92175</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>113460.20302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>337962.59434</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>147233.841</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>8478.600859999999</v>
+        <v>8103.96758</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>10233.67176</v>
+        <v>8967.359809999998</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>12259.74133</v>
+        <v>11138.60497</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>11730.26422</v>
+        <v>10947.13073</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>13160.83607</v>
+        <v>15081.48503</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>30093.56381</v>
+        <v>29319.27709</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>15114.16949</v>
+        <v>14239.02752</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>20065.14563</v>
+        <v>19261.43149</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>31276.21604</v>
+        <v>48096.17372</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>56853.02889999999</v>
+        <v>87863.60053</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>88320.56762999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>168240.14777</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>112321.106</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5437.562869999999</v>
+        <v>4121.83345</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>21330.9855</v>
+        <v>20114.16157</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>4111.47842</v>
+        <v>4130.64377</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6013.765249999999</v>
+        <v>5638.952060000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7221.24109</v>
+        <v>7578.17893</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>33650.94829000001</v>
+        <v>32195.71734</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>18594.10397</v>
+        <v>18535.50628</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>15407.59951</v>
+        <v>14407.13583</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>15584.70698</v>
+        <v>14171.98069</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>22026.90775</v>
+        <v>25803.30836</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>20168.79773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>164789.05709</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>26900.949</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1357.96375</v>
+        <v>1095.29706</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>248.26138</v>
+        <v>3020.49371</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>188.8484</v>
+        <v>182.37814</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>640.79838</v>
+        <v>648.1021599999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1323.20988</v>
+        <v>1272.61535</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>974.5571000000001</v>
+        <v>947.61756</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1178.17547</v>
+        <v>1101.3729</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>957.53624</v>
+        <v>889.0392800000002</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>893.94792</v>
+        <v>1401.77406</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>5336.11305</v>
+        <v>5379.01286</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4970.83766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4933.389480000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>8011.786</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>507870.95314</v>
+        <v>523474.1544299999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>622875.95169</v>
+        <v>608236.2019</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>816520.8785399999</v>
+        <v>818005.12307</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>962740.1010800001</v>
+        <v>965910.0930899999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1133141.84034</v>
+        <v>1185109.74855</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1496769.33796</v>
+        <v>1524606.80533</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1410205.03455</v>
+        <v>1376081.8071</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1461328.77215</v>
+        <v>1472885.76556</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2054184.33082</v>
+        <v>2161838.07994</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3228514.90271</v>
+        <v>3379842.31731</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3852599.90454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4054413.32725</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6549568.116</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>389633.41323</v>
+        <v>417162.32655</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>470530.59328</v>
+        <v>472029.46005</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>642801.4179</v>
+        <v>646792.09139</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>749021.3685399999</v>
+        <v>753635.14199</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>886032.4533799998</v>
+        <v>921784.6221099999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1182881.67277</v>
+        <v>1202147.96498</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1084916.79377</v>
+        <v>1084051.19596</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1132631.11377</v>
+        <v>1144139.59596</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1573052.50235</v>
+        <v>1653169.23426</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2363146.40584</v>
+        <v>2558164.36554</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2904495.30374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3019326.4734</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4909800.189</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>327927.5921</v>
+        <v>324905.25595</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>361703.82265</v>
+        <v>358227.1634200001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>483813.6922999999</v>
+        <v>475532.05144</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>548260.35484</v>
+        <v>543179.8006600001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>691626.2176299999</v>
+        <v>701494.33412</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>994436.9726500001</v>
+        <v>991930.3712699999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>862308.5251900001</v>
+        <v>841355.3736800001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>790740.20377</v>
+        <v>788516.36313</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1232689.96502</v>
+        <v>1301283.89328</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1850593.70567</v>
+        <v>1989576.43976</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2324991.47818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2400508.52509</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3671291.782</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>43086.18022</v>
+        <v>39918.49105</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>86007.73965999999</v>
+        <v>76487.22160999999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>115809.4592</v>
+        <v>107524.22392</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>152992.21516</v>
+        <v>138875.60054</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>149232.37819</v>
+        <v>152719.01492</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>144328.63204</v>
+        <v>135487.32451</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>158857.14098</v>
+        <v>149664.68406</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>267301.40251</v>
+        <v>263447.69083</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>269959.11251</v>
+        <v>280208.301</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>313051.66139</v>
+        <v>337522.66178</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>405767.02201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>402606.67702</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>930269.378</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>17062.38791</v>
+        <v>28728.70233</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>22076.16358</v>
+        <v>36572.20763</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>40684.25359</v>
+        <v>61330.9234</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>44191.00764</v>
+        <v>68004.71562999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>39752.61316</v>
+        <v>61150.65508</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>38634.5438</v>
+        <v>66511.72123</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>57822.95346</v>
+        <v>87222.99759</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>67721.85948</v>
+        <v>86460.82264999999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>58874.16605000001</v>
+        <v>61819.55538000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>180221.41439</v>
+        <v>211785.63961</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>146069.92897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>185665.96041</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>294435.745</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1557.253</v>
+        <v>23609.87722</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>742.86739</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2494.01281</v>
+        <v>2404.89263</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3577.7909</v>
+        <v>3575.02516</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5421.2444</v>
+        <v>6420.617990000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5481.52428</v>
+        <v>8218.547970000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5928.17414</v>
+        <v>5808.140630000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6867.648010000001</v>
+        <v>5714.719349999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>11529.25877</v>
+        <v>9857.484600000002</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>19279.62439</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>27666.87458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>30545.31087999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>13803.284</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>118237.53991</v>
+        <v>106311.82788</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>152345.35841</v>
+        <v>136206.74185</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>173719.46064</v>
+        <v>171213.03168</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>213718.73254</v>
+        <v>212274.9511</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>247109.38696</v>
+        <v>263325.12644</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>313887.66519</v>
+        <v>322458.84035</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>325288.2407800001</v>
+        <v>292030.61114</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>328697.65838</v>
+        <v>328746.1696</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>481131.82847</v>
+        <v>508668.84568</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>865368.49687</v>
+        <v>821677.9517699999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>948104.6007999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1035086.85385</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1639767.927</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>77037.29072</v>
+        <v>74842.35199000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>98834.26753</v>
+        <v>88051.27425</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>108714.76658</v>
+        <v>109553.13057</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>121401.12256</v>
+        <v>118539.27613</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>173228.2553</v>
+        <v>175603.37255</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>211686.9184</v>
+        <v>212292.42957</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>193176.19526</v>
+        <v>180175.8798</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>200649.96992</v>
+        <v>192615.90345</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>270298.52133</v>
+        <v>273735.53595</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>412202.0172800001</v>
+        <v>396020.5245700001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>527196.72714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>517177.83339</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>666388.155</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5798.0281</v>
+        <v>5010.81622</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>6962.43004</v>
+        <v>6080.301689999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>6282.90739</v>
+        <v>6396.75505</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>6435.33688</v>
+        <v>5529.21145</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8584.307860000001</v>
+        <v>8400.71277</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>20103.21632</v>
+        <v>20215.22604</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>14449.34375</v>
+        <v>14058.11576</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>23133.3498</v>
+        <v>18842.49211</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>27945.69569</v>
+        <v>25076.6428</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>42038.75493</v>
+        <v>41200.811</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>64547.8065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>67645.25372999998</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>101913.285</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>23118.63562</v>
+        <v>24224.41962</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>34152.40451</v>
+        <v>32481.1335</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>35182.95581</v>
+        <v>35897.50127</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>40123.13003</v>
+        <v>41382.88156</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>47631.0617</v>
+        <v>49092.75913</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>64311.50600000001</v>
+        <v>65215.915</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>48920.72328</v>
+        <v>46435.4249</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>51985.43251000001</v>
+        <v>53464.74952</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>75263.58179000001</v>
+        <v>80870.53597000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>136706.0257</v>
+        <v>141555.9306</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>183146.05129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>177926.45887</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>170295.817</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>48120.627</v>
+        <v>45607.11615</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>57719.43298</v>
+        <v>49489.83906000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>67248.90337999999</v>
+        <v>67258.87424999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>74842.65565</v>
+        <v>71627.18312</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>117012.88574</v>
+        <v>118109.90065</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>127272.19608</v>
+        <v>126861.28853</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>129806.12823</v>
+        <v>119682.33914</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>125531.18761</v>
+        <v>120308.66182</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>167089.24385</v>
+        <v>167788.35718</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>233457.23665</v>
+        <v>213263.78297</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>279502.8693499999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>271606.12079</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>394179.053</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>41200.24918999999</v>
+        <v>31469.47589</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>53511.09088</v>
+        <v>48155.46760000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>65004.69405999999</v>
+        <v>61659.90111000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>92317.60998000001</v>
+        <v>93735.67496999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>73881.13166</v>
+        <v>87721.75388999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>102200.74679</v>
+        <v>110166.41078</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>132112.04552</v>
+        <v>111854.73134</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>128047.68846</v>
+        <v>136130.26615</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>210833.30714</v>
+        <v>234933.30973</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>453166.47959</v>
+        <v>425657.4272</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>420907.87366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>517909.0204599999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>973379.772</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>306766.80114</v>
+        <v>305722.64739</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>313471.66889</v>
+        <v>313989.24595</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>38602.38215999999</v>
+        <v>38638.68479</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>24345.0943</v>
+        <v>29410.36451</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>50418.44286000001</v>
+        <v>46074.57701</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>62547.5073</v>
+        <v>70345.84581999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>81421.17589</v>
+        <v>88624.88183</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>74927.99232999999</v>
+        <v>97838.51746</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>86382.30647</v>
+        <v>96894.38223</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>545538.1239499999</v>
+        <v>586374.7532</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>364643.93757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>296131.40571</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>567596.289</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1895.37779</v>
+        <v>12.2575</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4132.15667</v>
+        <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3669.67381</v>
+        <v>2120</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1991.38872</v>
+        <v>1190</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>5345.225030000001</v>
+        <v>0.3762799999999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6179.21963</v>
+        <v>3480</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>1219.16572</v>
@@ -1793,22 +1804,27 @@
         <v>1122.24629</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2186.00966</v>
+        <v>2359.00767</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>12098.22935</v>
+        <v>1374.4314</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>35004.87948</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>285.2816</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>594.284</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>231.29913</v>
+        <v>229.46</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>217.63801</v>
@@ -1820,7 +1836,7 @@
         <v>403.10226</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>7824.55973</v>
+        <v>161.53076</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>469.9737</v>
@@ -1838,52 +1854,62 @@
         <v>12055.63698</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>18389.89797</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>18128.58909</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>9229.208000000001</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4921.15892</v>
+        <v>3906.58745</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2631.16746</v>
+        <v>2820.24544</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2350.83486</v>
+        <v>2566.79155</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3358.056939999999</v>
+        <v>2928.73852</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6552.75853</v>
+        <v>4397.94146</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>7951.39092</v>
+        <v>5803.20759</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7228.176699999999</v>
+        <v>4137.736690000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7464.432279999999</v>
+        <v>4256.01866</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>11356.12273</v>
+        <v>8620.330389999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>24719.91001</v>
+        <v>16984.80617</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>35226.84243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>34397.47288</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>31796.335</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>238.88332</v>
@@ -1895,157 +1921,177 @@
         <v>31.6317</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>355.49075</v>
+        <v>355.425</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>0.25923</v>
+        <v>0.25722</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>823.16552</v>
+        <v>823.08016</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>211.71366</v>
+        <v>1785.56034</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>386.41475</v>
+        <v>387.70819</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2.1695</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2423.244</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>760.1269100000001</v>
+        <v>662.7053100000001</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>429.34898</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2171.95103</v>
+        <v>677.60493</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>231.10209</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1124.56569</v>
+        <v>1120.51569</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>856.6105900000001</v>
+        <v>859.1105900000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>644.1852700000001</v>
+        <v>593.11844</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>73.48821000000001</v>
+        <v>67.50998000000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>910.51833</v>
+        <v>967.1640500000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1625.14247</v>
+        <v>1922.74247</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2206.58607</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2571.38673</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1961.205</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>428.39981</v>
+        <v>426.41871</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>217.08614</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>67.12598999999999</v>
+        <v>65.91473999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>102.21949</v>
+        <v>47.69057</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>52.9904</v>
+        <v>3.6666</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>186.68305</v>
+        <v>167.28973</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>248.05249</v>
+        <v>230.1945</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>240.32067</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>419.9875500000001</v>
+        <v>525.6598299999999</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>583.15861</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>989.06984</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>989.05417</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4054.004</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>18979.75138</v>
+        <v>20874.71528</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>11291.10545</v>
+        <v>16396.78961</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>18214.44969</v>
+        <v>23760.07042</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>12309.73621</v>
+        <v>19884.04773</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>23679.13283999999</v>
+        <v>31755.3066</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>41944.72277</v>
+        <v>49079.61601999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>67413.45195</v>
+        <v>77815.89015000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>58137.38029000001</v>
+        <v>84339.03665000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>60145.93367</v>
+        <v>75056.13382999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>438645.9015</v>
+        <v>535955.3052599999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>211642.52758</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>219913.61806</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>485097.081</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>94.05979000000001</v>
+        <v>74.60263</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>343.72992</v>
+        <v>19.96698</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
@@ -2054,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>161.86478</v>
+        <v>2684.71832</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>109.384</v>
+        <v>5964.267400000002</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>20.12933</v>
@@ -2072,13 +2118,18 @@
         <v>1295.92152</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1779.00002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1635.67557</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>470.007</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>279217.7440900001</v>
+        <v>279297.01719</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>294209.4362599999</v>
+        <v>293888.17079</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>11732.56811</v>
+        <v>9052.52448</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5593.997840000001</v>
+        <v>4370.258339999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5677.345859999999</v>
+        <v>5950.521299999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4849.26341</v>
+        <v>4522.123570000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4072.65912</v>
+        <v>4033.29169</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6381.91914</v>
+        <v>6305.265119999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>9803.34808</v>
+        <v>6231.853330000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>54127.80808</v>
+        <v>15815.04192</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>59405.13418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>18208.15811</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>31970.921</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>300035.69554</v>
+        <v>301491.51212</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>308775.44222</v>
+        <v>314143.9383699999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>28579.17887</v>
+        <v>49082.80851</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>16122.71372</v>
+        <v>20102.18988</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>31812.19147</v>
+        <v>60287.29712999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>72377.98913</v>
+        <v>81955.31172</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>105589.8561</v>
+        <v>118239.87254</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>75143.99410000001</v>
+        <v>96430.83351</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>66730.05295</v>
+        <v>80670.43216</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>467234.0719099999</v>
+        <v>543037.9785900001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>216738.15564</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>223535.97762</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>405956.196</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1053.91934</v>
+        <v>1050.63549</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>870.5546699999999</v>
+        <v>870.55467</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>335.05149</v>
+        <v>333.30149</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>276.31165</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>300.61797</v>
+        <v>300.09918</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>1634.11449</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>512.9605299999999</v>
+        <v>507.9044699999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1023.76411</v>
+        <v>1013.72207</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1135.36732</v>
+        <v>1378.20726</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>762.9103400000001</v>
+        <v>1022.6715</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1166.45955</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2355.93581</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2179.785</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2275.17802</v>
+        <v>2182.143</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1561.91662</v>
+        <v>1404.77431</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1601.14522</v>
+        <v>1729.80983</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>2222.19482</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4593.624</v>
+        <v>3667.46806</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3778.45483</v>
+        <v>3790.95483</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2484.12676</v>
+        <v>2346.15816</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4062.120809999999</v>
+        <v>4019.12081</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2781.37454</v>
+        <v>2811.07389</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3747.83222</v>
+        <v>17571.0026</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7067.7455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>13059.88195</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2440.706</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3.5725</v>
@@ -2294,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>14.64526</v>
+        <v>12.6913</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
@@ -2303,55 +2379,65 @@
         <v>0.51405</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>13074.56479</v>
+        <v>13074.55553</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>26.244</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>142.87</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>18192.56736</v>
+        <v>20090.32111</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>11087.12439</v>
+        <v>17373.16153</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>20663.31430000001</v>
+        <v>41294.4408</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10843.10838</v>
+        <v>14863.22673</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>25385.00968</v>
+        <v>50568.21661</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>64627.35679</v>
+        <v>69191.16903</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>100624.80855</v>
+        <v>113735.75342</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>68012.18465000001</v>
+        <v>89493.61100999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>60132.88072999999</v>
+        <v>74159.47426999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>441629.1562399999</v>
+        <v>503851.90026</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>195774.043</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>202652.68067</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>398147.084</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>74.37805999999999</v>
@@ -2366,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>144.71573</v>
+        <v>4435.52234</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>93.44392999999999</v>
+        <v>5430.44854</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>29.4293</v>
@@ -2378,19 +2464,24 @@
         <v>44.13994</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>254.14698</v>
+        <v>100.79622</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>142.29522</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2801.96406</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2298.07818</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>259.566</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2423,136 +2514,156 @@
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
+        <v>0.8502799999999999</v>
+      </c>
+      <c r="N42" s="48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>278436.08026</v>
+        <v>278090.46196</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>295177.81824</v>
+        <v>294417.41956</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>5975.44535</v>
+        <v>5721.033879999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>749.5282199999999</v>
+        <v>708.88603</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>815.4507</v>
+        <v>743.21755</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2244.61909</v>
+        <v>1908.62483</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1923.8857</v>
+        <v>1607.93589</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2001.78459</v>
+        <v>1860.23968</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2425.76933</v>
+        <v>2220.36647</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7877.3131</v>
+        <v>7375.55348</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9901.699530000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3142.30673</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2786.185</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>11753.76164</v>
+        <v>21682.98141</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>12417.98451</v>
+        <v>8896.81409</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>18690.10089</v>
+        <v>15741.97661</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>21402.12773</v>
+        <v>18648.57032</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>32823.69971</v>
+        <v>34543.77719</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>34375.63007</v>
+        <v>43118.95786</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>37064.98002</v>
+        <v>39320.11805</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>53344.41833</v>
+        <v>61583.7822</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>47442.4484</v>
+        <v>55704.73881</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>129808.49275</v>
+        <v>141708.81726</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>152915.61904</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>148406.30284</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>177577.968</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>11267.26696</v>
+        <v>12399.81851</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>11793.97915</v>
+        <v>8332.19305</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>18166.53087</v>
+        <v>15218.40659</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>20480.39219</v>
+        <v>17726.83478</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>23369.19432</v>
+        <v>25086.62953</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>33487.4817</v>
+        <v>42234.29818999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>33963.45349</v>
+        <v>36223.92356</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>53118.22303</v>
+        <v>55889.03599</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>47120.62486</v>
+        <v>51217.07765000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>98314.39367</v>
+        <v>111246.80641</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>123951.29453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>118653.84139</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>131070.954</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>486.49468</v>
+        <v>9283.162900000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>624.00536</v>
+        <v>564.62104</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>523.57002</v>
@@ -2561,457 +2672,515 @@
         <v>921.73554</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>9454.505390000002</v>
+        <v>9457.147660000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>888.14837</v>
+        <v>884.6596699999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3101.52653</v>
+        <v>3096.19449</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>226.1953</v>
+        <v>5694.74621</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>321.82354</v>
+        <v>4487.661160000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>31494.09908</v>
+        <v>30462.01085</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>28964.32451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>29752.46145</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>46507.014</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>36177.59315</v>
+        <v>14017.62975</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>45789.33304</v>
+        <v>39103.96109</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>56337.79646000001</v>
+        <v>35473.80077999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>79137.86283</v>
+        <v>84395.27928</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>59663.68334</v>
+        <v>38965.25658</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>57994.63489</v>
+        <v>55437.98702</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>70878.38528999999</v>
+        <v>42919.62258</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>74487.26836</v>
+        <v>75954.1679</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>183043.11226</v>
+        <v>195452.52099</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>401662.03888</v>
+        <v>327285.38455</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>415898.03655</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>442098.14571</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>957441.897</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2472.76287</v>
+        <v>9498.430520000002</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3590.63323</v>
+        <v>3505.26804</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>9872.048780000001</v>
+        <v>9335.525969999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4622.01361</v>
+        <v>4267.074259999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>14336.32332</v>
+        <v>15652.25666</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>15608.77741</v>
+        <v>16057.7531</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>8734.42416</v>
+        <v>7805.38824</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>15606.79254</v>
+        <v>11210.81134</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>16867.74102</v>
+        <v>17072.48106</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>27733.12819</v>
+        <v>33342.45547</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>31750.07267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>33439.87431</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>65571.215</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>39.22746</v>
+        <v>75.94685000000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>275.27186</v>
+        <v>273.48758</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>69.94479000000001</v>
+        <v>57.81394</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>257.34101</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>47.81894</v>
+        <v>59.47851</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>99.7272</v>
+        <v>139.62209</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>339.1090799999999</v>
+        <v>348.4248</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>28.66235</v>
+        <v>286.58783</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>82.64452</v>
+        <v>76.12889</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2798.70116</v>
+        <v>2802.80528</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2467.264099999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2383.793209999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2171.105</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2433.53541</v>
+        <v>9422.48367</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3315.36137</v>
+        <v>3231.78046</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>9802.10399</v>
+        <v>9277.712030000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4364.6726</v>
+        <v>4009.73325</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>14288.50438</v>
+        <v>15592.77815</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>15509.05021</v>
+        <v>15918.13101</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>8395.31508</v>
+        <v>7456.96344</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>15578.13019</v>
+        <v>10924.22351</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>16785.0965</v>
+        <v>16996.35217</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>24934.42703</v>
+        <v>30539.65019</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>29282.80857</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>31056.0811</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>63400.11</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>11876.8975</v>
+        <v>19138.80404</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6207.885119999999</v>
+        <v>5945.056519999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>39202.46361</v>
+        <v>21254.75521</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5672.15445</v>
+        <v>5063.28725</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5882.299289999999</v>
+        <v>6223.236269999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>15696.74172</v>
+        <v>16648.97962</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13850.49847</v>
+        <v>12105.32856</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>43877.94093</v>
+        <v>37941.536</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>9356.676960000001</v>
+        <v>8443.74215</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>45628.6083</v>
+        <v>51448.861</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>48707.38047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>43940.55606</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>49365.5</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>5229.21991</v>
+        <v>6472.986540000001</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>2085.90351</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1278.25008</v>
+        <v>1248.61395</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>413.69252</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2164.03424</v>
+        <v>38.55371</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3419.46614</v>
+        <v>54.50383</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3241.09964</v>
+        <v>1274.21105</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4962.12843</v>
+        <v>2534.67893</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>979.79811</v>
+        <v>232.60879</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1530.76779</v>
+        <v>745.6197900000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>9595.419649999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7406.69881</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>19982.147</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>102.18556</v>
+        <v>1392.6624</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>250.62127</v>
+        <v>245.03422</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>8.233700000000001</v>
+        <v>4.07365</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>211.01483</v>
+        <v>104.29849</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>285.4718</v>
+        <v>507.39205</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>178.62781</v>
+        <v>318.56281</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>113.10861</v>
+        <v>1288.47254</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>260.41423</v>
+        <v>217.8859</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>618.00519</v>
+        <v>584.8228</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>676.6738</v>
+        <v>806.8136</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>769.61439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>869.8013900000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2298.416</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6545.49203</v>
+        <v>11273.1551</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3871.36034</v>
+        <v>3614.11879</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>37915.97983</v>
+        <v>20002.06761</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5047.4471</v>
+        <v>4545.296240000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3432.793250000001</v>
+        <v>5677.29051</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>12098.64777</v>
+        <v>16275.91298</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10496.29022</v>
+        <v>9542.644970000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>38655.39827000001</v>
+        <v>35188.97117</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>7758.87366</v>
+        <v>7626.310560000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>43421.16671</v>
+        <v>49896.42761</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>38342.34643000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>35664.05586</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>27084.937</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>26773.45852</v>
+        <v>4377.256230000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>43172.08115</v>
+        <v>36664.17261</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>27007.38163</v>
+        <v>23554.57154</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>78087.72199000001</v>
+        <v>83599.06628999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>68117.70737</v>
+        <v>48394.27697</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>57906.67058</v>
+        <v>54846.76049999998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>65762.31098000001</v>
+        <v>38619.68226000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>46216.11997</v>
+        <v>49223.44323999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>190554.17632</v>
+        <v>204081.2599</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>383766.5587700001</v>
+        <v>309178.97902</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>398940.72875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>431597.46396</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>973647.612</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6047.469810000001</v>
+        <v>5153.42346</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7904.21215</v>
+        <v>7525.370870000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>9956.695800000001</v>
+        <v>9740.815010000002</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>10937.74556</v>
+        <v>11417.50551</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>13380.87348</v>
+        <v>11784.40694</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>21108.39714</v>
+        <v>21669.83328</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>21182.32828</v>
+        <v>17948.2459</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>15844.33582</v>
+        <v>16456.87735</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>27424.27586</v>
+        <v>26886.5621</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>54282.83047</v>
+        <v>44508.40634</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>57017.65374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>54479.45904</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>95128.16</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>20725.98871</v>
+        <v>-776.1672300000008</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>35267.869</v>
+        <v>29138.80174</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>17050.68583</v>
+        <v>13813.75653</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>67149.97643000001</v>
+        <v>72181.56078</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>54736.83389</v>
+        <v>36609.87002999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>36798.27344000001</v>
+        <v>33176.92722</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>44579.9827</v>
+        <v>20671.43636</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>30371.78415</v>
+        <v>32766.56589</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>163129.90046</v>
+        <v>177194.6978</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>329483.7283</v>
+        <v>264670.57268</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>341923.07501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>377118.00492</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>878519.452</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>63</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>66</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>75</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>67</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>71</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>76</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>80</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>103</v>
+      </c>
+      <c r="L59" s="35" t="n">
         <v>85</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>86</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>98</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>83</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>89</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>103</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>111</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>135</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>92</v>
-      </c>
       <c r="M59" s="35" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>93</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>